--- a/output/to_publish/results14.xlsx
+++ b/output/to_publish/results14.xlsx
@@ -9,21 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="iono" sheetId="1" r:id="rId1"/>
     <sheet name="CTG" sheetId="2" r:id="rId2"/>
     <sheet name="wdbc" sheetId="3" r:id="rId3"/>
     <sheet name="mnist2" sheetId="4" r:id="rId4"/>
-    <sheet name="20newsgroups500" sheetId="5" r:id="rId5"/>
+    <sheet name="mnist2-deskewed" sheetId="7" r:id="rId5"/>
+    <sheet name="20newsgroups500" sheetId="5" r:id="rId6"/>
+    <sheet name="Avg across algo" sheetId="6" r:id="rId7"/>
+    <sheet name="Final avg. tables" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="61">
   <si>
     <t>Dataset</t>
   </si>
@@ -156,14 +159,66 @@
   <si>
     <t>20newsgroups500 - #points=1500, #features=500</t>
   </si>
+  <si>
+    <t>Average metrics</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>iono</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>wdbc</t>
+  </si>
+  <si>
+    <t>20news</t>
+  </si>
+  <si>
+    <t>Comp ratio1</t>
+  </si>
+  <si>
+    <t>Comp ratio2</t>
+  </si>
+  <si>
+    <t>MNIST2-deskewed - #points=2000, #features=784</t>
+  </si>
+  <si>
+    <t>mnist2-deskewed</t>
+  </si>
+  <si>
+    <t>mnist2-deskew</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Compression ratio</t>
+  </si>
+  <si>
+    <t>ionosphere</t>
+  </si>
+  <si>
+    <t>WDBC</t>
+  </si>
+  <si>
+    <t>MNIST</t>
+  </si>
+  <si>
+    <t>20newsgroups</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -482,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -612,6 +667,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -657,17 +723,37 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -724,6 +810,5941 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compression ratio (average across datasets)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dp-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dp-mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dl-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dl-mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dch-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dch-mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dchperceptron-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dchperceptron-mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KSVD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F469-428B-A471-0FE919BAFACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443774784"/>
+        <c:axId val="443775768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443774784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443775768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443775768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443774784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. sparsity (average across datasets)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dp-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dp-mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dl-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dl-mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dch-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dch-mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dchperceptron-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dchperceptron-mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KSVD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0A82-469D-BFA9-F29D6A7C5B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443979776"/>
+        <c:axId val="443983056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443979776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443983056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443983056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443979776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compression ratio (average across algorithms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ionosphere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2073-41E6-8208-436232F0A10B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2073-41E6-8208-436232F0A10B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WDBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2073-41E6-8208-436232F0A10B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MNIST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2073-41E6-8208-436232F0A10B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20newsgroups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2073-41E6-8208-436232F0A10B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="412354840"/>
+        <c:axId val="412355168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="412354840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="412355168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412355168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412354840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. sparsity (average across algorithms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ionosphere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FF5-4372-87C9-43A54AE615FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FF5-4372-87C9-43A54AE615FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WDBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FF5-4372-87C9-43A54AE615FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MNIST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FF5-4372-87C9-43A54AE615FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final avg. tables'!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20newsgroups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final avg. tables'!$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8FF5-4372-87C9-43A54AE615FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="412357464"/>
+        <c:axId val="439806024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="412357464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="439806024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439806024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412357464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A082AD96-2116-425E-94BA-AF4D85C6C5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49A3177-4B95-4501-95AA-A09498057C08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C48E5E-4E2F-430E-B7D3-E7B93AF16DC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213A4CEE-F39B-401E-AAB3-1D567F1818F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1025,8 +7046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,182 +7059,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>161</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.47460999999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.48809999999999998</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>120</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.39995000000000003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.39065</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.65812</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>95</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.37607000000000002</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.34205000000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2.4273500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>94</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.36843999999999999</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.33677000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2.3447300000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>129</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.38612000000000002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.39693000000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>73</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.27786</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.26068000000000002</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1.7920199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>34</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.33593000000000001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.23252999999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>4.6125400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>34</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.44218000000000002</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.28565000000000002</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>6.4188000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>50</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.43707000000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.28976000000000002</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5.0085499999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
+        <f>AVERAGE(C3:C11)</f>
+        <v>0.38869222222222222</v>
+      </c>
+      <c r="D12" s="7">
+        <f>AVERAGE(D3:D11)</f>
+        <v>0.33590222222222227</v>
+      </c>
+      <c r="E12" s="8">
+        <f>AVERAGE(E3:E11)</f>
+        <v>2.918012222222222</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -4080,7 +10118,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4092,182 +10130,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1417</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.68239000000000005</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.71413000000000004</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>628</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.39605000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.37656000000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.70461</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>349</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.51820999999999995</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.36890000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4.29962</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>314</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.46507999999999999</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.33371000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>3.9064000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>966</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.48036000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.50199000000000005</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>288</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.25896999999999998</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.22425</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1.86453</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>90</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1.36483</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.72840000000000005</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>14.40734</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>77</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1.2753699999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.68045999999999995</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>13.529159999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>250</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.34991</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.23375000000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2.4393199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
+        <f>AVERAGE(C3:C11)</f>
+        <v>0.64346333333333339</v>
+      </c>
+      <c r="D12" s="7">
+        <f>AVERAGE(D3:D11)</f>
+        <v>0.46246111111111116</v>
+      </c>
+      <c r="E12" s="8">
+        <f>AVERAGE(E3:E11)</f>
+        <v>4.9056644444444437</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -7133,7 +13188,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7145,182 +13200,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>329</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.59226999999999996</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.61153999999999997</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>106</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.26766000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.24675</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.8137099999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>61</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.30545</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.22478000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3.5272399999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.25840999999999997</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.20035</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2.8471000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>222</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.41049000000000002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.42348999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>38</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.16011</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.13122</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1.9332199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.58189999999999997</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.32578000000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8.7187999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.77405000000000002</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.42004000000000002</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>11.65202</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.27112000000000003</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.22342999999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>1.43058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
+        <f>AVERAGE(C3:C11)</f>
+        <v>0.40238444444444443</v>
+      </c>
+      <c r="D12" s="7">
+        <f>AVERAGE(D3:D11)</f>
+        <v>0.31193111111111116</v>
+      </c>
+      <c r="E12" s="8">
+        <f>AVERAGE(E3:E11)</f>
+        <v>3.769185555555556</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -10186,7 +16258,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10198,174 +16270,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1435</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.71786000000000005</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.71877999999999997</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>325</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.16933000000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.16666</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3.258</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>319</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.16591</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.16344</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>3.0924999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>971</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.48615999999999998</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.48677999999999999</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>378</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.19209999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.19131000000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1.8109999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>127</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>7.1859999999999993E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>6.8360000000000004E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>3.8090000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>131</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>7.3840000000000003E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>7.0349999999999996E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>3.8035000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>150</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>8.727E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>8.1129999999999994E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>4.8094999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -13228,10 +19305,830 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1361</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.68091000000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.68178000000000005</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>824</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.41425000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.41403000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.5880000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>443</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.22728000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.22517000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.8755000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1">
+        <v>428</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.21948000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.21751000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.7534999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>973</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.48715000000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.48777999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1">
+        <v>384</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.19509000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.19431000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.8080000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>190</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.10308</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.9739999999999995E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.7149999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>191</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.10127</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.9080000000000001E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.8090000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11519</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.10759000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5.9539999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
+        <f>AVERAGE(C3:C11)</f>
+        <v>0.28263333333333329</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:E12" si="0">AVERAGE(D3:D11)</f>
+        <v>0.28077666666666673</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6114444444444445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21">
+        <v>784</v>
+      </c>
+      <c r="E21">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F21">
+        <v>1361</v>
+      </c>
+      <c r="G21">
+        <v>1568000</v>
+      </c>
+      <c r="H21">
+        <v>1067663</v>
+      </c>
+      <c r="I21">
+        <v>1069024</v>
+      </c>
+      <c r="J21">
+        <v>0.68091000000000002</v>
+      </c>
+      <c r="K21">
+        <v>0.68178000000000005</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>4.40482</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>2000</v>
+      </c>
+      <c r="D22">
+        <v>784</v>
+      </c>
+      <c r="E22">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F22">
+        <v>824</v>
+      </c>
+      <c r="G22">
+        <v>1568000</v>
+      </c>
+      <c r="H22">
+        <v>649544</v>
+      </c>
+      <c r="I22">
+        <v>649192</v>
+      </c>
+      <c r="J22">
+        <v>0.41425000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.41403000000000001</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="N22">
+        <v>4.4076300000000002</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>2000</v>
+      </c>
+      <c r="D23">
+        <v>784</v>
+      </c>
+      <c r="E23">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F23">
+        <v>443</v>
+      </c>
+      <c r="G23">
+        <v>1568000</v>
+      </c>
+      <c r="H23">
+        <v>356371</v>
+      </c>
+      <c r="I23">
+        <v>353063</v>
+      </c>
+      <c r="J23">
+        <v>0.22728000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.22517000000000001</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>2.8755000000000002</v>
+      </c>
+      <c r="N23">
+        <v>4.4078299999999997</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="D24">
+        <v>784</v>
+      </c>
+      <c r="E24">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F24">
+        <v>428</v>
+      </c>
+      <c r="G24">
+        <v>1568000</v>
+      </c>
+      <c r="H24">
+        <v>344138</v>
+      </c>
+      <c r="I24">
+        <v>341059</v>
+      </c>
+      <c r="J24">
+        <v>0.21948000000000001</v>
+      </c>
+      <c r="K24">
+        <v>0.21751000000000001</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>2.7534999999999998</v>
+      </c>
+      <c r="N24">
+        <v>4.4081299999999999</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+      <c r="D25">
+        <v>784</v>
+      </c>
+      <c r="E25">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F25">
+        <v>973</v>
+      </c>
+      <c r="G25">
+        <v>1568000</v>
+      </c>
+      <c r="H25">
+        <v>763859</v>
+      </c>
+      <c r="I25">
+        <v>764832</v>
+      </c>
+      <c r="J25">
+        <v>0.48715000000000003</v>
+      </c>
+      <c r="K25">
+        <v>0.48777999999999999</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2.26376</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>2000</v>
+      </c>
+      <c r="D26">
+        <v>784</v>
+      </c>
+      <c r="E26">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F26">
+        <v>384</v>
+      </c>
+      <c r="G26">
+        <v>1568000</v>
+      </c>
+      <c r="H26">
+        <v>305904</v>
+      </c>
+      <c r="I26">
+        <v>304672</v>
+      </c>
+      <c r="J26">
+        <v>0.19509000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.19431000000000001</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="N26">
+        <v>3.5596700000000001</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>2000</v>
+      </c>
+      <c r="D27">
+        <v>784</v>
+      </c>
+      <c r="E27">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F27">
+        <v>190</v>
+      </c>
+      <c r="G27">
+        <v>1568000</v>
+      </c>
+      <c r="H27">
+        <v>161630</v>
+      </c>
+      <c r="I27">
+        <v>156390</v>
+      </c>
+      <c r="J27">
+        <v>0.10308</v>
+      </c>
+      <c r="K27">
+        <v>9.9739999999999995E-2</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="N27">
+        <v>4.2225299999999999</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>2000</v>
+      </c>
+      <c r="D28">
+        <v>784</v>
+      </c>
+      <c r="E28">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F28">
+        <v>191</v>
+      </c>
+      <c r="G28">
+        <v>1568000</v>
+      </c>
+      <c r="H28">
+        <v>158789</v>
+      </c>
+      <c r="I28">
+        <v>155362</v>
+      </c>
+      <c r="J28">
+        <v>0.10127</v>
+      </c>
+      <c r="K28">
+        <v>9.9080000000000001E-2</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>2.8090000000000002</v>
+      </c>
+      <c r="N28">
+        <v>4.3712900000000001</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>2000</v>
+      </c>
+      <c r="D29">
+        <v>784</v>
+      </c>
+      <c r="E29">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>1568000</v>
+      </c>
+      <c r="H29">
+        <v>147462</v>
+      </c>
+      <c r="I29">
+        <v>93331</v>
+      </c>
+      <c r="J29">
+        <v>9.4039999999999999E-2</v>
+      </c>
+      <c r="K29">
+        <v>5.9520000000000003E-2</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>27.0655</v>
+      </c>
+      <c r="N29">
+        <v>3.5326599999999999</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+      <c r="P29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>2000</v>
+      </c>
+      <c r="D30">
+        <v>784</v>
+      </c>
+      <c r="E30">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>1568000</v>
+      </c>
+      <c r="H30">
+        <v>127178</v>
+      </c>
+      <c r="I30">
+        <v>102789</v>
+      </c>
+      <c r="J30">
+        <v>8.1110000000000002E-2</v>
+      </c>
+      <c r="K30">
+        <v>6.5549999999999997E-2</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>12.1945</v>
+      </c>
+      <c r="N30">
+        <v>3.4891399999999999</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>2000</v>
+      </c>
+      <c r="D31">
+        <v>784</v>
+      </c>
+      <c r="E31">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F31">
+        <v>150</v>
+      </c>
+      <c r="G31">
+        <v>1568000</v>
+      </c>
+      <c r="H31">
+        <v>148836</v>
+      </c>
+      <c r="I31">
+        <v>133218</v>
+      </c>
+      <c r="J31">
+        <v>9.4920000000000004E-2</v>
+      </c>
+      <c r="K31">
+        <v>8.4959999999999994E-2</v>
+      </c>
+      <c r="L31">
+        <v>150</v>
+      </c>
+      <c r="M31">
+        <v>7.8090000000000002</v>
+      </c>
+      <c r="N31">
+        <v>3.4738199999999999</v>
+      </c>
+      <c r="O31">
+        <v>150</v>
+      </c>
+      <c r="P31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>2000</v>
+      </c>
+      <c r="D32">
+        <v>784</v>
+      </c>
+      <c r="E32">
+        <v>4.4085099999999997</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32">
+        <v>1568000</v>
+      </c>
+      <c r="H32">
+        <v>180616</v>
+      </c>
+      <c r="I32">
+        <v>168708</v>
+      </c>
+      <c r="J32">
+        <v>0.11519</v>
+      </c>
+      <c r="K32">
+        <v>0.10759000000000001</v>
+      </c>
+      <c r="L32">
+        <v>200</v>
+      </c>
+      <c r="M32">
+        <v>5.9539999999999997</v>
+      </c>
+      <c r="N32">
+        <v>3.4073799999999999</v>
+      </c>
+      <c r="O32">
+        <v>200</v>
+      </c>
+      <c r="P32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13243,182 +20140,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>908</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.60611999999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.60733000000000004</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>635</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.42679</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.42648999999999998</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.57667</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>433</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.29713000000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.29419000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2.76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>424</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.28935</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.28728999999999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2.3133300000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>705</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.47105999999999998</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>381</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.25847999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.25749</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1.746</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>113</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>9.5659999999999995E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>8.6569999999999994E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>5.62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>116</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9.7619999999999998E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>8.8550000000000004E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>5.61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>200</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.17230999999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.15282000000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>9.7446699999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
+        <f>AVERAGE(C3:C11)</f>
+        <v>0.30161333333333329</v>
+      </c>
+      <c r="D12" s="7">
+        <f>AVERAGE(D3:D11)</f>
+        <v>0.29697000000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <f>AVERAGE(E3:E11)</f>
+        <v>3.48563</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -16277,4 +23191,1128 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="P1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.47460999999999998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.48809999999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.39995000000000003</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.39065</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.65812</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.37607000000000002</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.34205000000000002</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2.4273500000000001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.36843999999999999</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.33677000000000001</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2.3447300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.68239000000000005</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.71413000000000004</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.39605000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.37656000000000001</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.70461</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.51820999999999995</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="N4" s="4">
+        <v>4.29962</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.46507999999999999</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.33371000000000001</v>
+      </c>
+      <c r="S4" s="4">
+        <v>3.9064000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.59226999999999996</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.61153999999999997</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.26766000000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.24675</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.8137099999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.30545</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.22478000000000001</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3.5272399999999999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.25840999999999997</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.20035</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2.8471000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.68091000000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.68178000000000005</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.41425000000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.41403000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.22728000000000001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.22517000000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.8755000000000002</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.21948000000000001</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.21751000000000001</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2.7534999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.60611999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.60733000000000004</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.42679</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.42648999999999998</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.57667</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.29713000000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.29419000000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.28935</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.28728999999999999</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2.3133300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="7">
+        <f>AVERAGE(B3:B7)</f>
+        <v>0.60725999999999991</v>
+      </c>
+      <c r="C8" s="7">
+        <f>AVERAGE(C3:C7)</f>
+        <v>0.62057600000000002</v>
+      </c>
+      <c r="D8" s="8">
+        <f>AVERAGE(D3:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="7">
+        <f>AVERAGE(G3:G7)</f>
+        <v>0.38094</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:I8" si="0">AVERAGE(H3:H7)</f>
+        <v>0.370896</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6682220000000001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="7">
+        <f>AVERAGE(L3:L7)</f>
+        <v>0.34482799999999997</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" ref="M8:N8" si="1">AVERAGE(M3:M7)</f>
+        <v>0.291018</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1779420000000003</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>AVERAGE(Q3:Q7)</f>
+        <v>0.32015199999999999</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" ref="R8:S8" si="2">AVERAGE(R3:R7)</f>
+        <v>0.27512600000000004</v>
+      </c>
+      <c r="S8" s="8">
+        <f t="shared" si="2"/>
+        <v>2.8330120000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="P12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.38612000000000002</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.39693000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.27786</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.26068000000000002</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.7920199999999999</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.33593000000000001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.23252999999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <v>4.6125400000000001</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.44218000000000002</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.28565000000000002</v>
+      </c>
+      <c r="S14" s="4">
+        <v>6.4188000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.48036000000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.50199000000000005</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.25896999999999998</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.22425</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.86453</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.36483</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="N15" s="4">
+        <v>14.40734</v>
+      </c>
+      <c r="P15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.2753699999999999</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.68045999999999995</v>
+      </c>
+      <c r="S15" s="4">
+        <v>13.529159999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.41049000000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.42348999999999998</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.16011</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.13122</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.9332199999999999</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.58189999999999997</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.32578000000000001</v>
+      </c>
+      <c r="N16" s="4">
+        <v>8.7187999999999999</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.77405000000000002</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.42004000000000002</v>
+      </c>
+      <c r="S16" s="4">
+        <v>11.65202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.48715000000000003</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.48777999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.19509000000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.19431000000000001</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.10308</v>
+      </c>
+      <c r="M17" s="3">
+        <v>9.9739999999999995E-2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="P17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.10127</v>
+      </c>
+      <c r="R17" s="3">
+        <v>9.9080000000000001E-2</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2.8090000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.47105999999999998</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.25847999999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.25749</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.746</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="3">
+        <v>9.5659999999999995E-2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>8.6569999999999994E-2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>5.62</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>9.7619999999999998E-2</v>
+      </c>
+      <c r="R18" s="3">
+        <v>8.8550000000000004E-2</v>
+      </c>
+      <c r="S18" s="4">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7">
+        <f>AVERAGE(B14:B18)</f>
+        <v>0.44703599999999993</v>
+      </c>
+      <c r="C19" s="7">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.45643800000000001</v>
+      </c>
+      <c r="D19" s="8">
+        <f>AVERAGE(D14:D18)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="7">
+        <f>AVERAGE(G14:G18)</f>
+        <v>0.23010199999999997</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" ref="H19:I19" si="3">AVERAGE(H14:H18)</f>
+        <v>0.21359</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="3"/>
+        <v>1.828754</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="7">
+        <f>AVERAGE(L14:L18)</f>
+        <v>0.49627999999999994</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" ref="M19:N19" si="4">AVERAGE(M14:M18)</f>
+        <v>0.29460399999999998</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="4"/>
+        <v>7.4147360000000004</v>
+      </c>
+      <c r="P19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>AVERAGE(Q14:Q18)</f>
+        <v>0.53809799999999997</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" ref="R19:S19" si="5">AVERAGE(R14:R18)</f>
+        <v>0.31475599999999998</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="5"/>
+        <v>8.0037959999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.43707000000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.28976000000000002</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.0085499999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.34991</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.23375000000000001</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2.4393199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.27112000000000003</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.22342999999999999</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.43058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.11519</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.10759000000000001</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5.9539999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.17230999999999999</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.15282000000000001</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9.7446699999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7">
+        <f>AVERAGE(B24:B28)</f>
+        <v>0.26911999999999997</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" ref="C29:D29" si="6">AVERAGE(C24:C28)</f>
+        <v>0.20146999999999998</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="6"/>
+        <v>4.9154239999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="P12:S12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.621</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.371</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.214</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.315</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.312</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>